--- a/EE/compatibilitytable.xlsx
+++ b/EE/compatibilitytable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\EE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4D06A76-1F70-4EB1-B955-60916D5DF191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F02722-16E8-4B05-A6AD-6C97A6B2AAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34125" yWindow="1665" windowWidth="21600" windowHeight="11385" xr2:uid="{524E28B4-710C-400C-B521-A0D207EEF7E7}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7785" xr2:uid="{524E28B4-710C-400C-B521-A0D207EEF7E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Shine On Caelar</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Blackhearts (EET / non-EET)</t>
   </si>
 </sst>
 </file>
@@ -136,10 +139,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A7B966F-413C-4B12-91D7-9E7D07D882D6}" name="Table1" displayName="Table1" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7" xr:uid="{1A7B966F-413C-4B12-91D7-9E7D07D882D6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C6">
-    <sortCondition ref="A1:A6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A7B966F-413C-4B12-91D7-9E7D07D882D6}" name="Table1" displayName="Table1" ref="A1:C8" totalsRowShown="0">
+  <autoFilter ref="A1:C8" xr:uid="{1A7B966F-413C-4B12-91D7-9E7D07D882D6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
+    <sortCondition ref="A1:A7"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{75033034-A47B-4C94-94DD-D6C2BB959990}" name="Mod"/>
@@ -151,9 +154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -191,7 +194,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -297,7 +300,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,7 +442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -447,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4C6A25-0105-4480-A3D7-40DFAFD93D8D}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:C7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="24.140625" customWidth="1"/>
   </cols>
@@ -473,7 +476,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -484,7 +487,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -495,7 +498,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -506,34 +509,45 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
     </row>
